--- a/UFC.xlsx
+++ b/UFC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Fanduel</t>
   </si>
   <si>
+    <t>AVG</t>
+  </si>
+  <si>
     <t>Pinnacle</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>Kelly</t>
+  </si>
+  <si>
+    <t>Spread</t>
   </si>
   <si>
     <t>Punahele Soriano</t>
@@ -482,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,7 +497,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +522,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>-260</v>
@@ -534,18 +546,24 @@
         <v>-290</v>
       </c>
       <c r="F2">
-        <v>-267</v>
+        <v>-229</v>
       </c>
       <c r="G2">
-        <v>0.73</v>
+        <v>-233</v>
       </c>
       <c r="H2">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-3.12</v>
+      </c>
+      <c r="I2">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="J2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>210</v>
@@ -560,18 +578,24 @@
         <v>215</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-3.9</v>
+      </c>
+      <c r="I3">
+        <v>-1.77</v>
+      </c>
+      <c r="J3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>-135</v>
@@ -586,18 +610,24 @@
         <v>-128</v>
       </c>
       <c r="F4">
-        <v>-132</v>
+        <v>-120</v>
       </c>
       <c r="G4">
-        <v>1.35</v>
+        <v>-122</v>
       </c>
       <c r="H4">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-2.11</v>
+      </c>
+      <c r="I4">
+        <v>-2.7</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>115</v>
@@ -612,18 +642,24 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>0.47</v>
+        <v>122</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-2.7</v>
+      </c>
+      <c r="I5">
+        <v>-2.33</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>-320</v>
@@ -638,18 +674,24 @@
         <v>-310</v>
       </c>
       <c r="F6">
-        <v>-309</v>
+        <v>-258</v>
       </c>
       <c r="G6">
-        <v>1.16</v>
+        <v>-264</v>
       </c>
       <c r="H6">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-2.89</v>
+      </c>
+      <c r="I6">
+        <v>-8.52</v>
+      </c>
+      <c r="J6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>250</v>
@@ -664,18 +706,24 @@
         <v>230</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G7">
-        <v>-0</v>
+        <v>264</v>
       </c>
       <c r="H7">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-3.85</v>
+      </c>
+      <c r="I7">
+        <v>-1.54</v>
+      </c>
+      <c r="J7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>-195</v>
@@ -690,18 +738,24 @@
         <v>-174</v>
       </c>
       <c r="F8">
-        <v>-181</v>
+        <v>-163</v>
       </c>
       <c r="G8">
-        <v>1.43</v>
+        <v>-164</v>
       </c>
       <c r="H8">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-2.18</v>
+      </c>
+      <c r="I8">
+        <v>-3.79</v>
+      </c>
+      <c r="J8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>165</v>
@@ -716,18 +770,24 @@
         <v>136</v>
       </c>
       <c r="F9">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G9">
-        <v>3.92</v>
+        <v>164</v>
       </c>
       <c r="H9">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.38</v>
+      </c>
+      <c r="I9">
+        <v>0.23</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>-160</v>
@@ -742,18 +802,24 @@
         <v>-160</v>
       </c>
       <c r="F10">
-        <v>-156</v>
+        <v>-142</v>
       </c>
       <c r="G10">
-        <v>-0.74</v>
+        <v>-143</v>
       </c>
       <c r="H10">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-4.14</v>
+      </c>
+      <c r="I10">
+        <v>-6.58</v>
+      </c>
+      <c r="J10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>135</v>
@@ -768,18 +834,24 @@
         <v>124</v>
       </c>
       <c r="F11">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G11">
-        <v>0.43</v>
+        <v>143</v>
       </c>
       <c r="H11">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-2.88</v>
+      </c>
+      <c r="I11">
+        <v>-2.12</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>-270</v>
@@ -794,18 +866,24 @@
         <v>-290</v>
       </c>
       <c r="F12">
-        <v>-278</v>
+        <v>-233</v>
       </c>
       <c r="G12">
-        <v>1.3</v>
+        <v>-241</v>
       </c>
       <c r="H12">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-2.66</v>
+      </c>
+      <c r="I12">
+        <v>-7.04</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>220</v>
@@ -820,18 +898,24 @@
         <v>215</v>
       </c>
       <c r="F13">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G13">
-        <v>-0.91</v>
+        <v>241</v>
       </c>
       <c r="H13">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-4.69</v>
+      </c>
+      <c r="I13">
+        <v>-2.09</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>-205</v>
@@ -846,18 +930,24 @@
         <v>-210</v>
       </c>
       <c r="F14">
-        <v>-200</v>
+        <v>-179</v>
       </c>
       <c r="G14">
-        <v>-0.8100000000000001</v>
+        <v>-180</v>
       </c>
       <c r="H14">
-        <v>-1.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-4.36</v>
+      </c>
+      <c r="I14">
+        <v>-8.93</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>170</v>
@@ -872,18 +962,24 @@
         <v>162</v>
       </c>
       <c r="F15">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G15">
-        <v>-0</v>
+        <v>180</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-3.57</v>
+      </c>
+      <c r="I15">
+        <v>-2.1</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>-420</v>
@@ -898,18 +994,24 @@
         <v>-430</v>
       </c>
       <c r="F16">
-        <v>-428</v>
+        <v>-343</v>
       </c>
       <c r="G16">
-        <v>0.36</v>
+        <v>-348</v>
       </c>
       <c r="H16">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-3.83</v>
+      </c>
+      <c r="I16">
+        <v>-16.07</v>
+      </c>
+      <c r="J16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>330</v>
@@ -924,18 +1026,24 @@
         <v>300</v>
       </c>
       <c r="F17">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G17">
-        <v>0.23</v>
+        <v>348</v>
       </c>
       <c r="H17">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>-4.02</v>
+      </c>
+      <c r="I17">
+        <v>-1.22</v>
+      </c>
+      <c r="J17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>-240</v>
@@ -950,18 +1058,24 @@
         <v>-245</v>
       </c>
       <c r="F18">
-        <v>-207</v>
+        <v>-198</v>
       </c>
       <c r="G18">
-        <v>-1.64</v>
+        <v>-185</v>
       </c>
       <c r="H18">
-        <v>-3.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>-5.31</v>
+      </c>
+      <c r="I18">
+        <v>-11.58</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>195</v>
@@ -976,18 +1090,24 @@
         <v>186</v>
       </c>
       <c r="F19">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G19">
-        <v>7.27</v>
+        <v>185</v>
       </c>
       <c r="H19">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>3.51</v>
+      </c>
+      <c r="I19">
+        <v>1.8</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>-125</v>
@@ -1002,18 +1122,24 @@
         <v>-130</v>
       </c>
       <c r="F20">
-        <v>-122</v>
+        <v>-114</v>
       </c>
       <c r="G20">
-        <v>-1.08</v>
+        <v>-113</v>
       </c>
       <c r="H20">
-        <v>-1.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-4.51</v>
+      </c>
+      <c r="I20">
+        <v>-5.63</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>105</v>
@@ -1028,13 +1154,19 @@
         <v>102</v>
       </c>
       <c r="F21">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G21">
-        <v>-0.49</v>
+        <v>113</v>
       </c>
       <c r="H21">
-        <v>-0.46</v>
+        <v>-3.76</v>
+      </c>
+      <c r="I21">
+        <v>-3.58</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1044,47 +1176,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="1" priority="42" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1094,47 +1226,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="1" priority="63" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="1" priority="93" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="1" priority="43" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1144,47 +1276,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
     <cfRule type="cellIs" dxfId="1" priority="44" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1194,47 +1326,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="1" priority="75" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="1" priority="85" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="cellIs" dxfId="1" priority="45" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="1" priority="77" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1244,47 +1376,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="1" priority="46" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1294,47 +1426,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="1" priority="57" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="1" priority="87" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="1" priority="97" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
     <cfRule type="cellIs" dxfId="1" priority="47" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="1" priority="79" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1344,102 +1476,202 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
     <cfRule type="cellIs" dxfId="1" priority="48" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H21">
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="1" priority="69" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="1" priority="99" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="1" priority="49" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
     <cfRule type="cellIs" dxfId="1" priority="40" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="1" priority="81" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="1" priority="91" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="1" priority="101" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="1" priority="41" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="1" priority="51" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
